--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIIMS\aiimsDemoRepo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIIMS\chetansainikhurdi\aiimsDemoRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1C3B64-CAC8-40FF-A113-BBDB3CECA38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A37891-D33C-4FF1-B077-0824245FD24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>IPS</t>
   </si>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>hc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdsd </t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -979,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,6 +1137,20 @@
       </c>
       <c r="J4" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIIMS\chetansainikhurdi\aiimsDemoRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A37891-D33C-4FF1-B077-0824245FD24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBA5F9F-F888-4D6F-A6AC-7785A6CA4FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>IPS</t>
   </si>
@@ -117,39 +117,6 @@
   </si>
   <si>
     <t>Chetan Saini</t>
-  </si>
-  <si>
-    <t>ssfq</t>
-  </si>
-  <si>
-    <t>hgv</t>
-  </si>
-  <si>
-    <t>hv</t>
-  </si>
-  <si>
-    <t>hg</t>
-  </si>
-  <si>
-    <t>cgh</t>
-  </si>
-  <si>
-    <t>cg</t>
-  </si>
-  <si>
-    <t>hc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdsd </t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>h</t>
   </si>
 </sst>
 </file>
@@ -991,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,46 +1078,6 @@
       </c>
       <c r="Q2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIIMS\chetansainikhurdi\aiimsDemoRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBA5F9F-F888-4D6F-A6AC-7785A6CA4FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E5AE48-FC1E-481C-861D-684AFA8760D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -961,7 +961,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>2</v>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIIMS\chetansainikhurdi\aiimsDemoRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E5AE48-FC1E-481C-861D-684AFA8760D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B3ED11-9915-46B7-8CEA-A75DBEB63213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>2</v>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIIMS\chetansainikhurdi\aiimsDemoRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B3ED11-9915-46B7-8CEA-A75DBEB63213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284017E8-8A53-4272-84EA-95D0D88C9699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>2</v>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIIMS\chetansainikhurdi\aiimsDemoRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284017E8-8A53-4272-84EA-95D0D88C9699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D89CF2A-ED8A-4088-85FF-DC448BB24804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>2</v>
